--- a/PhoenixCI/Excel_Template/35030.xlsx
+++ b/PhoenixCI/Excel_Template/35030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9637B9-9495-4111-8BE6-61EA2DBD4612}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{597541C6-C75F-49ED-85C1-58271F318A60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="2535" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="15" windowWidth="18195" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="35030" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -119,10 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -295,38 +291,38 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,16 +676,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A997" workbookViewId="0">
+      <selection activeCell="B1006" sqref="B1006:F1006"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
@@ -697,35 +693,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="str">
+      <c r="B3" s="9" t="str">
         <f>"證交所權證標的有效期別(季)："&amp;A3</f>
         <v>證交所權證標的有效期別(季)：</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7745,30 +7741,30 @@
       <c r="F1004" s="2"/>
     </row>
     <row r="1005" spans="2:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1005" s="3" t="s">
+      <c r="B1005" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1005" s="4">
+      <c r="C1005" s="5">
         <f>COUNTIF(A5:A1004,"0")+COUNTIF(A5:A1004,"1")</f>
         <v>0</v>
       </c>
-      <c r="D1005" s="11" t="s">
+      <c r="D1005" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1005" s="11"/>
-      <c r="F1005" s="5">
+      <c r="E1005" s="12"/>
+      <c r="F1005" s="6">
         <f>COUNTIF(A5:A1004,"0")+COUNTIF(A5:A1004,"2")</f>
         <v>0</v>
       </c>
     </row>
     <row r="1006" spans="2:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1006" s="10" t="s">
+      <c r="B1006" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1006" s="10"/>
-      <c r="D1006" s="10"/>
-      <c r="E1006" s="10"/>
-      <c r="F1006" s="10"/>
+      <c r="C1006" s="11"/>
+      <c r="D1006" s="11"/>
+      <c r="E1006" s="11"/>
+      <c r="F1006" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/PhoenixCI/Excel_Template/35030.xlsx
+++ b/PhoenixCI/Excel_Template/35030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{597541C6-C75F-49ED-85C1-58271F318A60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9637B9-9495-4111-8BE6-61EA2DBD4612}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="18195" windowHeight="7995"/>
+    <workbookView xWindow="2565" yWindow="2535" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="35030" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -118,7 +119,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -291,38 +295,38 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,16 +680,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A997" workbookViewId="0">
-      <selection activeCell="B1006" sqref="B1006:F1006"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9" style="12" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
@@ -693,35 +697,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="str">
+      <c r="B3" s="8" t="str">
         <f>"證交所權證標的有效期別(季)："&amp;A3</f>
         <v>證交所權證標的有效期別(季)：</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7741,30 +7745,30 @@
       <c r="F1004" s="2"/>
     </row>
     <row r="1005" spans="2:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1005" s="4" t="s">
+      <c r="B1005" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1005" s="5">
+      <c r="C1005" s="4">
         <f>COUNTIF(A5:A1004,"0")+COUNTIF(A5:A1004,"1")</f>
         <v>0</v>
       </c>
-      <c r="D1005" s="12" t="s">
+      <c r="D1005" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E1005" s="12"/>
-      <c r="F1005" s="6">
+      <c r="E1005" s="11"/>
+      <c r="F1005" s="5">
         <f>COUNTIF(A5:A1004,"0")+COUNTIF(A5:A1004,"2")</f>
         <v>0</v>
       </c>
     </row>
     <row r="1006" spans="2:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1006" s="11" t="s">
+      <c r="B1006" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1006" s="11"/>
-      <c r="D1006" s="11"/>
-      <c r="E1006" s="11"/>
-      <c r="F1006" s="11"/>
+      <c r="C1006" s="10"/>
+      <c r="D1006" s="10"/>
+      <c r="E1006" s="10"/>
+      <c r="F1006" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
